--- a/doc/teorethicalcomputation4tests.xlsx
+++ b/doc/teorethicalcomputation4tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DiscoD\Muro\GitHub\multienergysystem\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3D3195-0B0C-44BA-9612-6442DA1550C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87FA72F-3ED7-44F1-A824-6A8C941A8D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{48B1869B-21F5-4BDF-B69D-8E219112A809}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{48B1869B-21F5-4BDF-B69D-8E219112A809}"/>
   </bookViews>
   <sheets>
     <sheet name="Mass_Energy Balance" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="GBoiler &amp; ElectricB" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -238,14 +237,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -562,16 +561,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271E8F8D-2751-468C-AA7B-D09D88CBA675}">
   <dimension ref="C5:X30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:24" x14ac:dyDescent="0.25">
       <c r="M5" t="s">
         <v>8</v>
       </c>
@@ -594,7 +593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:24" x14ac:dyDescent="0.25">
       <c r="J6">
         <v>6627.7772999999997</v>
       </c>
@@ -638,7 +637,7 @@
         <v>8156.6624352754998</v>
       </c>
     </row>
-    <row r="7" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:24" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>0</v>
       </c>
@@ -682,7 +681,7 @@
         <v>4196.0578153123297</v>
       </c>
     </row>
-    <row r="8" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
@@ -736,7 +735,7 @@
         <v>4194.6198946187096</v>
       </c>
     </row>
-    <row r="9" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>4</v>
       </c>
@@ -783,7 +782,7 @@
         <v>4193.2094167923105</v>
       </c>
     </row>
-    <row r="10" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>5</v>
       </c>
@@ -834,7 +833,7 @@
         <v>4191.8298163361069</v>
       </c>
     </row>
-    <row r="11" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:24" x14ac:dyDescent="0.25">
       <c r="J11">
         <v>7524.7124000000003</v>
       </c>
@@ -866,7 +865,7 @@
         <v>4190.4845166768991</v>
       </c>
     </row>
-    <row r="12" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>6</v>
       </c>
@@ -917,7 +916,7 @@
         <v>4189.177148918001</v>
       </c>
     </row>
-    <row r="13" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>7</v>
       </c>
@@ -970,7 +969,7 @@
         <v>4187.9115340050121</v>
       </c>
     </row>
-    <row r="15" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:24" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>0</v>
       </c>
@@ -984,7 +983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -1004,7 +1003,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>4</v>
       </c>
@@ -1021,7 +1020,7 @@
         <v>4161.072874194846</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>5</v>
       </c>
@@ -1038,7 +1037,7 @@
         <v>0.6023847</v>
       </c>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>6</v>
       </c>
@@ -1067,7 +1066,7 @@
         <v>4161.072874194846</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>7</v>
       </c>
@@ -1088,7 +1087,7 @@
         <v>50.131332700000002</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>13</v>
       </c>
@@ -1099,7 +1098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -1110,7 +1109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>17</v>
       </c>
@@ -1121,7 +1120,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -1132,7 +1131,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>17</v>
       </c>
@@ -1153,17 +1152,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0539F5BB-28F8-4AFC-BFAF-78EBA52576BB}">
   <dimension ref="C5:AI47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AB27" sqref="AB27"/>
+    <sheetView tabSelected="1" topLeftCell="P16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AB30" sqref="AB30:AH30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:24" x14ac:dyDescent="0.25">
       <c r="M5" t="s">
         <v>8</v>
       </c>
@@ -1186,7 +1185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:24" x14ac:dyDescent="0.25">
       <c r="J6">
         <v>6627.7772999999997</v>
       </c>
@@ -1230,7 +1229,7 @@
         <v>8156.6624352754998</v>
       </c>
     </row>
-    <row r="7" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:24" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>0</v>
       </c>
@@ -1274,7 +1273,7 @@
         <v>4196.0578153123297</v>
       </c>
     </row>
-    <row r="8" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1328,7 +1327,7 @@
         <v>4194.6198946187096</v>
       </c>
     </row>
-    <row r="9" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>4</v>
       </c>
@@ -1375,7 +1374,7 @@
         <v>4193.2094167923105</v>
       </c>
     </row>
-    <row r="10" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>5</v>
       </c>
@@ -1426,7 +1425,7 @@
         <v>4191.8298163361069</v>
       </c>
     </row>
-    <row r="11" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:24" x14ac:dyDescent="0.25">
       <c r="J11">
         <v>7524.7124000000003</v>
       </c>
@@ -1458,7 +1457,7 @@
         <v>4190.4845166768991</v>
       </c>
     </row>
-    <row r="12" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>6</v>
       </c>
@@ -1509,7 +1508,7 @@
         <v>4189.177148918001</v>
       </c>
     </row>
-    <row r="13" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>7</v>
       </c>
@@ -1562,7 +1561,7 @@
         <v>4187.9115340050121</v>
       </c>
     </row>
-    <row r="15" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:24" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>0</v>
       </c>
@@ -1576,7 +1575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -1596,7 +1595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:35" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>4</v>
       </c>
@@ -1613,7 +1612,7 @@
         <v>4161.072874194846</v>
       </c>
     </row>
-    <row r="18" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:35" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>5</v>
       </c>
@@ -1633,7 +1632,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:35" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>6</v>
       </c>
@@ -1662,7 +1661,7 @@
         <v>4161.072874194846</v>
       </c>
     </row>
-    <row r="21" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:35" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>7</v>
       </c>
@@ -1682,44 +1681,44 @@
         <f>+H20/1000</f>
         <v>50.131332700000002</v>
       </c>
-      <c r="R21" s="7" t="s">
+      <c r="R21" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7" t="s">
+      <c r="S21" s="12"/>
+      <c r="T21" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7" t="s">
+      <c r="U21" s="12"/>
+      <c r="V21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7" t="s">
+      <c r="W21" s="12"/>
+      <c r="X21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7" t="s">
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7" t="s">
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AC21" s="7"/>
-      <c r="AD21" s="7" t="s">
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7" t="s">
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="7" t="s">
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AI21" s="7"/>
-    </row>
-    <row r="22" spans="3:35" x14ac:dyDescent="0.3">
+      <c r="AI21" s="12"/>
+    </row>
+    <row r="22" spans="3:35" x14ac:dyDescent="0.25">
       <c r="R22" s="3" t="s">
         <v>20</v>
       </c>
@@ -1775,12 +1774,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:35" x14ac:dyDescent="0.25">
       <c r="Q23" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>13</v>
       </c>
@@ -1864,7 +1863,7 @@
         <v>70.452222010726643</v>
       </c>
     </row>
-    <row r="25" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:35" x14ac:dyDescent="0.25">
       <c r="Q25" s="3" t="s">
         <v>4</v>
       </c>
@@ -1884,7 +1883,7 @@
         <v>4161.072874194846</v>
       </c>
     </row>
-    <row r="26" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:35" x14ac:dyDescent="0.25">
       <c r="Q26" s="3" t="s">
         <v>5</v>
       </c>
@@ -1920,7 +1919,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="27" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -1937,30 +1936,30 @@
         <f>+R26*R25*(S24-R24)/1000</f>
         <v>99.322500000000005</v>
       </c>
-      <c r="AB27" s="8">
+      <c r="AB27" s="7">
         <f>+AB26*AB25*(AB24-AC24)/1000</f>
         <v>24.830624999999987</v>
       </c>
       <c r="AC27" s="3"/>
-      <c r="AD27" s="8">
+      <c r="AD27" s="7">
         <f>+AD26*AD25*(AD24-AE24)/1000</f>
         <v>24.830624999999987</v>
       </c>
       <c r="AE27" s="3"/>
-      <c r="AF27" s="8">
+      <c r="AF27" s="7">
         <f>+AF26*AF25*(AF24-AG24)/1000</f>
         <v>24.830624999999987</v>
       </c>
       <c r="AG27" s="3"/>
-      <c r="AH27" s="8">
+      <c r="AH27" s="7">
         <f>+AH26*AH25*(AH24-AI24)/1000</f>
         <v>24.830624999999987</v>
       </c>
     </row>
-    <row r="28" spans="3:35" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:35" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>17</v>
       </c>
@@ -1973,27 +1972,27 @@
       <c r="Q29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AB29" s="9">
+      <c r="AB29" s="8">
         <f>+$R$27/-4</f>
         <v>-24.830625000000001</v>
       </c>
       <c r="AC29" s="3"/>
-      <c r="AD29" s="9">
+      <c r="AD29" s="8">
         <f>+$R$27/-4</f>
         <v>-24.830625000000001</v>
       </c>
       <c r="AE29" s="3"/>
-      <c r="AF29" s="9">
+      <c r="AF29" s="8">
         <f>+$R$27/-4</f>
         <v>-24.830625000000001</v>
       </c>
       <c r="AG29" s="3"/>
-      <c r="AH29" s="9">
+      <c r="AH29" s="8">
         <f>+$R$27/-4</f>
         <v>-24.830625000000001</v>
       </c>
     </row>
-    <row r="30" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:35" x14ac:dyDescent="0.25">
       <c r="Q30" s="3" t="s">
         <v>5</v>
       </c>
@@ -2010,7 +2009,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="31" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:35" x14ac:dyDescent="0.25">
       <c r="Q31" s="3" t="s">
         <v>4</v>
       </c>
@@ -2031,7 +2030,7 @@
       </c>
       <c r="AI31" s="1"/>
     </row>
-    <row r="32" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -2047,7 +2046,7 @@
       <c r="AB32">
         <v>8</v>
       </c>
-      <c r="AC32" s="5">
+      <c r="AC32" s="10">
         <f>+AB32-AB29*1000/(AB30*AB31)</f>
         <v>11.379463639105916</v>
       </c>
@@ -2073,7 +2072,7 @@
         <v>11.379463639105916</v>
       </c>
     </row>
-    <row r="33" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>17</v>
       </c>
@@ -2108,35 +2107,35 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="AB34" s="7" t="s">
+    <row r="34" spans="3:35" x14ac:dyDescent="0.25">
+      <c r="AB34" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AC34" s="7"/>
-      <c r="AD34" s="7" t="s">
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="AE34" s="7"/>
-      <c r="AF34" s="7" t="s">
+      <c r="AE34" s="12"/>
+      <c r="AF34" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="AG34" s="7"/>
-      <c r="AH34" s="7" t="s">
+      <c r="AG34" s="12"/>
+      <c r="AH34" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AI34" s="7"/>
-    </row>
-    <row r="35" spans="3:35" x14ac:dyDescent="0.3">
+      <c r="AI34" s="12"/>
+    </row>
+    <row r="35" spans="3:35" x14ac:dyDescent="0.25">
       <c r="AC35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:35" x14ac:dyDescent="0.25">
       <c r="AC36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:35" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>0</v>
       </c>
@@ -2150,7 +2149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:35" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>18</v>
       </c>
@@ -2164,7 +2163,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -2184,7 +2183,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:35" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>4</v>
       </c>
@@ -2201,7 +2200,7 @@
         <v>4198.5741190523495</v>
       </c>
     </row>
-    <row r="43" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -2212,7 +2211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:35" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>4</v>
       </c>
@@ -2224,7 +2223,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:35" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>5</v>
       </c>
@@ -2233,7 +2232,7 @@
         <v>1.2047694</v>
       </c>
     </row>
-    <row r="47" spans="3:35" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:35" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>7</v>
       </c>
@@ -2244,11 +2243,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="R21:S21"/>
     <mergeCell ref="AB34:AC34"/>
     <mergeCell ref="AD34:AE34"/>
     <mergeCell ref="AF34:AG34"/>
@@ -2257,6 +2251,11 @@
     <mergeCell ref="AF21:AG21"/>
     <mergeCell ref="AD21:AE21"/>
     <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="R21:S21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2270,18 +2269,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2379FF71-5ECB-45D3-87F0-56F60D453101}">
   <dimension ref="C6:AO55"/>
   <sheetViews>
-    <sheetView topLeftCell="N18" zoomScale="76" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AE36" sqref="AE36"/>
+    <sheetView topLeftCell="O20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH49" sqref="AH49:AN49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="23" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="23" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:27" x14ac:dyDescent="0.25">
       <c r="J6">
         <v>6627.7772999999997</v>
       </c>
@@ -2290,7 +2289,7 @@
       </c>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:27" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>0</v>
       </c>
@@ -2310,7 +2309,7 @@
         <v>-7524.7173000000003</v>
       </c>
     </row>
-    <row r="8" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
@@ -2340,7 +2339,7 @@
         <v>-7336.5117</v>
       </c>
     </row>
-    <row r="9" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>4</v>
       </c>
@@ -2363,7 +2362,7 @@
         <v>-7152.8056999999999</v>
       </c>
     </row>
-    <row r="10" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>5</v>
       </c>
@@ -2390,7 +2389,7 @@
         <v>-6973.5079999999998</v>
       </c>
     </row>
-    <row r="11" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:27" x14ac:dyDescent="0.25">
       <c r="J11">
         <v>7524.7124000000003</v>
       </c>
@@ -2398,7 +2397,7 @@
         <v>-6798.5293000000001</v>
       </c>
     </row>
-    <row r="12" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>6</v>
       </c>
@@ -2425,7 +2424,7 @@
         <v>-6627.7816999999995</v>
       </c>
     </row>
-    <row r="13" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:27" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>7</v>
       </c>
@@ -2454,7 +2453,7 @@
         <v>-50131.366399999999</v>
       </c>
     </row>
-    <row r="15" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:27" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>0</v>
       </c>
@@ -2468,7 +2467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -2488,7 +2487,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:41" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>4</v>
       </c>
@@ -2505,7 +2504,7 @@
         <v>4161.072874194846</v>
       </c>
     </row>
-    <row r="18" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:41" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>5</v>
       </c>
@@ -2522,7 +2521,7 @@
         <v>0.6023847</v>
       </c>
     </row>
-    <row r="20" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:41" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>6</v>
       </c>
@@ -2551,7 +2550,7 @@
         <v>4161.072874194846</v>
       </c>
     </row>
-    <row r="21" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:41" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>7</v>
       </c>
@@ -2571,56 +2570,56 @@
         <f>+H20/1000</f>
         <v>50.131332700000002</v>
       </c>
-      <c r="R21" s="7" t="s">
+      <c r="R21" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7" t="s">
+      <c r="S21" s="12"/>
+      <c r="T21" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7" t="s">
+      <c r="U21" s="12"/>
+      <c r="V21" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7" t="s">
+      <c r="W21" s="12"/>
+      <c r="X21" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7" t="s">
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7" t="s">
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AC21" s="7"/>
-      <c r="AD21" s="7" t="s">
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7" t="s">
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="7" t="s">
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AI21" s="7"/>
-      <c r="AJ21" s="7" t="s">
+      <c r="AI21" s="12"/>
+      <c r="AJ21" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="AK21" s="7"/>
-      <c r="AL21" s="7" t="s">
+      <c r="AK21" s="12"/>
+      <c r="AL21" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="AM21" s="7"/>
-      <c r="AN21" s="7" t="s">
+      <c r="AM21" s="12"/>
+      <c r="AN21" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AO21" s="7"/>
-    </row>
-    <row r="22" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="AO21" s="12"/>
+    </row>
+    <row r="22" spans="3:41" x14ac:dyDescent="0.25">
       <c r="R22" t="s">
         <v>20</v>
       </c>
@@ -2694,19 +2693,19 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:41" x14ac:dyDescent="0.25">
       <c r="Q23" s="3" t="s">
         <v>32</v>
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-    </row>
-    <row r="24" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+    </row>
+    <row r="24" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>13</v>
       </c>
@@ -2719,29 +2718,29 @@
       <c r="Q24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R24" s="10">
+      <c r="R24" s="9">
         <v>70.5</v>
       </c>
-      <c r="S24" s="10">
-        <v>80</v>
-      </c>
-      <c r="T24" s="10">
+      <c r="S24" s="9">
+        <v>80</v>
+      </c>
+      <c r="T24" s="9">
         <f>+S24</f>
         <v>80</v>
       </c>
-      <c r="U24" s="10">
+      <c r="U24" s="9">
         <f>+S24</f>
         <v>80</v>
       </c>
-      <c r="V24" s="10">
+      <c r="V24" s="9">
         <f>+S24</f>
         <v>80</v>
       </c>
-      <c r="W24" s="10">
+      <c r="W24" s="9">
         <f>+S24</f>
         <v>80</v>
       </c>
-      <c r="X24" s="10">
+      <c r="X24" s="9">
         <v>70.5</v>
       </c>
       <c r="Y24">
@@ -2783,7 +2782,7 @@
         <f>+Y24</f>
         <v>80</v>
       </c>
-      <c r="AI24" s="11">
+      <c r="AI24" s="10">
         <f>+AH24+AH29*1000/(AH25*AH26)</f>
         <v>70.452222010726643</v>
       </c>
@@ -2812,19 +2811,19 @@
         <v>70.452222010726643</v>
       </c>
     </row>
-    <row r="25" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:41" x14ac:dyDescent="0.25">
       <c r="Q25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R25" s="10">
+      <c r="R25" s="9">
         <v>4182</v>
       </c>
       <c r="S25" s="3"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10">
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9">
         <v>4182</v>
       </c>
       <c r="AH25" s="1">
@@ -2840,26 +2839,26 @@
         <v>4161.072874194846</v>
       </c>
     </row>
-    <row r="26" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:41" x14ac:dyDescent="0.25">
       <c r="Q26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R26" s="10">
+      <c r="R26" s="9">
         <f>+R27*1000/(R25*(S24-R24))</f>
         <v>1.2585265171537163</v>
       </c>
       <c r="S26" s="3"/>
-      <c r="T26" s="10">
+      <c r="T26" s="9">
         <f>+R26</f>
         <v>1.2585265171537163</v>
       </c>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10">
+      <c r="U26" s="9"/>
+      <c r="V26" s="9">
         <f>+T26</f>
         <v>1.2585265171537163</v>
       </c>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10">
+      <c r="W26" s="9"/>
+      <c r="X26" s="9">
         <v>2.5</v>
       </c>
       <c r="Z26">
@@ -2893,7 +2892,7 @@
         <v>0.93963162928842903</v>
       </c>
     </row>
-    <row r="27" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -2906,49 +2905,49 @@
       <c r="Q27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R27" s="10">
+      <c r="R27" s="9">
         <v>50</v>
       </c>
       <c r="S27" s="3"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10">
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9">
         <f>+X26*X25*(Y24-X24)/1000</f>
         <v>99.322500000000005</v>
       </c>
-      <c r="AH27" s="12">
+      <c r="AH27" s="11">
         <f>+AH26*AH25*(AH24-AI24)/1000</f>
         <v>37.330625000000005</v>
       </c>
       <c r="AI27" s="3"/>
-      <c r="AJ27" s="8">
+      <c r="AJ27" s="7">
         <f>+AJ26*AJ25*(AJ24-AK24)/1000</f>
         <v>37.330624999999969</v>
       </c>
       <c r="AK27" s="3"/>
-      <c r="AL27" s="8">
+      <c r="AL27" s="7">
         <f>+AL26*AL25*(AL24-AM24)/1000</f>
         <v>37.330624999999969</v>
       </c>
       <c r="AM27" s="3"/>
-      <c r="AN27" s="8">
+      <c r="AN27" s="7">
         <f>+AN26*AN25*(AN24-AO24)/1000</f>
         <v>37.330624999999969</v>
       </c>
     </row>
-    <row r="28" spans="3:41" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:41" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-    </row>
-    <row r="29" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+    </row>
+    <row r="29" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>17</v>
       </c>
@@ -2967,27 +2966,27 @@
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
-      <c r="AH29" s="9">
+      <c r="AH29" s="8">
         <f>+($X$27+$R$27)/-4</f>
         <v>-37.330624999999998</v>
       </c>
       <c r="AI29" s="3"/>
-      <c r="AJ29" s="9">
+      <c r="AJ29" s="8">
         <f>+AH29</f>
         <v>-37.330624999999998</v>
       </c>
       <c r="AK29" s="3"/>
-      <c r="AL29" s="9">
+      <c r="AL29" s="8">
         <f>+AJ29</f>
         <v>-37.330624999999998</v>
       </c>
       <c r="AM29" s="3"/>
-      <c r="AN29" s="9">
+      <c r="AN29" s="8">
         <f>+AL29</f>
         <v>-37.330624999999998</v>
       </c>
     </row>
-    <row r="30" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:41" x14ac:dyDescent="0.25">
       <c r="Q30" s="3" t="s">
         <v>5</v>
       </c>
@@ -3010,7 +3009,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="31" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:41" x14ac:dyDescent="0.25">
       <c r="Q31" s="3" t="s">
         <v>4</v>
       </c>
@@ -3037,7 +3036,7 @@
       </c>
       <c r="AO31" s="1"/>
     </row>
-    <row r="32" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -3085,7 +3084,7 @@
         <v>13.080721480534553</v>
       </c>
     </row>
-    <row r="33" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>17</v>
       </c>
@@ -3120,35 +3119,35 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="3:41" x14ac:dyDescent="0.3">
-      <c r="AH34" s="7" t="s">
+    <row r="34" spans="3:41" x14ac:dyDescent="0.25">
+      <c r="AH34" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AI34" s="7"/>
-      <c r="AJ34" s="7" t="s">
+      <c r="AI34" s="12"/>
+      <c r="AJ34" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="AK34" s="7"/>
-      <c r="AL34" s="7" t="s">
+      <c r="AK34" s="12"/>
+      <c r="AL34" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="AM34" s="7"/>
-      <c r="AN34" s="7" t="s">
+      <c r="AM34" s="12"/>
+      <c r="AN34" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AO34" s="7"/>
-    </row>
-    <row r="35" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="AO34" s="12"/>
+    </row>
+    <row r="35" spans="3:41" x14ac:dyDescent="0.25">
       <c r="AI35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:41" x14ac:dyDescent="0.25">
       <c r="AI36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:41" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>0</v>
       </c>
@@ -3162,7 +3161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:41" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>18</v>
       </c>
@@ -3176,7 +3175,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -3196,7 +3195,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:41" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>4</v>
       </c>
@@ -3212,56 +3211,56 @@
       <c r="H40" s="1">
         <v>4198.5741190523495</v>
       </c>
-      <c r="R40" s="7" t="s">
+      <c r="R40" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7" t="s">
+      <c r="S40" s="12"/>
+      <c r="T40" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="U40" s="7"/>
-      <c r="V40" s="7" t="s">
+      <c r="U40" s="12"/>
+      <c r="V40" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="W40" s="7"/>
-      <c r="X40" s="7" t="s">
+      <c r="W40" s="12"/>
+      <c r="X40" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="Y40" s="7"/>
-      <c r="Z40" s="7" t="s">
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="AA40" s="7"/>
-      <c r="AB40" s="7" t="s">
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AC40" s="7"/>
-      <c r="AD40" s="7" t="s">
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AE40" s="7"/>
-      <c r="AF40" s="7" t="s">
+      <c r="AE40" s="12"/>
+      <c r="AF40" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AG40" s="7"/>
-      <c r="AH40" s="7" t="s">
+      <c r="AG40" s="12"/>
+      <c r="AH40" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AI40" s="7"/>
-      <c r="AJ40" s="7" t="s">
+      <c r="AI40" s="12"/>
+      <c r="AJ40" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="AK40" s="7"/>
-      <c r="AL40" s="7" t="s">
+      <c r="AK40" s="12"/>
+      <c r="AL40" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="AM40" s="7"/>
-      <c r="AN40" s="7" t="s">
+      <c r="AM40" s="12"/>
+      <c r="AN40" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AO40" s="7"/>
-    </row>
-    <row r="41" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="AO40" s="12"/>
+    </row>
+    <row r="41" spans="3:41" x14ac:dyDescent="0.25">
       <c r="R41" t="s">
         <v>20</v>
       </c>
@@ -3335,19 +3334,19 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:41" x14ac:dyDescent="0.25">
       <c r="Q42" s="3" t="s">
         <v>32</v>
       </c>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10"/>
-    </row>
-    <row r="43" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+    </row>
+    <row r="43" spans="3:41" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -3360,29 +3359,29 @@
       <c r="Q43" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R43" s="10">
+      <c r="R43" s="9">
         <v>65</v>
       </c>
-      <c r="S43" s="10">
-        <v>80</v>
-      </c>
-      <c r="T43" s="10">
+      <c r="S43" s="9">
+        <v>80</v>
+      </c>
+      <c r="T43" s="9">
         <f>+S43</f>
         <v>80</v>
       </c>
-      <c r="U43" s="10">
+      <c r="U43" s="9">
         <f>+S43</f>
         <v>80</v>
       </c>
-      <c r="V43" s="10">
+      <c r="V43" s="9">
         <f>+S43</f>
         <v>80</v>
       </c>
-      <c r="W43" s="10">
+      <c r="W43" s="9">
         <f>+S43</f>
         <v>80</v>
       </c>
-      <c r="X43" s="10">
+      <c r="X43" s="9">
         <v>65</v>
       </c>
       <c r="Y43">
@@ -3453,7 +3452,7 @@
         <v>64.924561069568369</v>
       </c>
     </row>
-    <row r="44" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:41" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>4</v>
       </c>
@@ -3467,15 +3466,15 @@
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R44" s="10">
+      <c r="R44" s="9">
         <v>4182</v>
       </c>
       <c r="S44" s="3"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="10"/>
-      <c r="W44" s="10"/>
-      <c r="X44" s="10">
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9">
         <v>4182</v>
       </c>
       <c r="AH44" s="1">
@@ -3491,7 +3490,7 @@
         <v>4161.072874194846</v>
       </c>
     </row>
-    <row r="45" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:41" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>5</v>
       </c>
@@ -3502,22 +3501,22 @@
       <c r="Q45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R45" s="10">
+      <c r="R45" s="9">
         <f>+R46*1000/(R44*(S43-R43))</f>
         <v>0.79706679419735371</v>
       </c>
       <c r="S45" s="3"/>
-      <c r="T45" s="10">
+      <c r="T45" s="9">
         <f>+R45</f>
         <v>0.79706679419735371</v>
       </c>
-      <c r="U45" s="10"/>
-      <c r="V45" s="10">
+      <c r="U45" s="9"/>
+      <c r="V45" s="9">
         <f>+T45</f>
         <v>0.79706679419735371</v>
       </c>
-      <c r="W45" s="10"/>
-      <c r="X45" s="10">
+      <c r="W45" s="9"/>
+      <c r="X45" s="9">
         <v>2.2999999999999998</v>
       </c>
       <c r="Z45">
@@ -3553,43 +3552,43 @@
         <v>0.77426669854933838</v>
       </c>
     </row>
-    <row r="46" spans="3:41" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:41" x14ac:dyDescent="0.25">
       <c r="Q46" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R46" s="10">
+      <c r="R46" s="9">
         <v>50</v>
       </c>
       <c r="S46" s="3"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="10"/>
-      <c r="W46" s="10"/>
-      <c r="X46" s="10">
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="9">
         <f>+X45*X44*(Y43-X43)/1000</f>
         <v>144.27899999999997</v>
       </c>
-      <c r="AH46" s="12">
+      <c r="AH46" s="11">
         <f>+AH45*AH44*(AH43-AI43)/1000</f>
         <v>48.569750000000006</v>
       </c>
       <c r="AI46" s="3"/>
-      <c r="AJ46" s="8">
+      <c r="AJ46" s="7">
         <f>+AJ45*AJ44*(AJ43-AK43)/1000</f>
         <v>48.569750000000013</v>
       </c>
       <c r="AK46" s="3"/>
-      <c r="AL46" s="8">
+      <c r="AL46" s="7">
         <f>+AL45*AL44*(AL43-AM43)/1000</f>
         <v>48.569750000000013</v>
       </c>
       <c r="AM46" s="3"/>
-      <c r="AN46" s="8">
+      <c r="AN46" s="7">
         <f>+AN45*AN44*(AN43-AO43)/1000</f>
         <v>48.569750000000013</v>
       </c>
     </row>
-    <row r="47" spans="3:41" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:41" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>7</v>
       </c>
@@ -3600,13 +3599,13 @@
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="10"/>
-      <c r="W47" s="10"/>
-      <c r="X47" s="10"/>
-    </row>
-    <row r="48" spans="3:41" x14ac:dyDescent="0.3">
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
+    </row>
+    <row r="48" spans="3:41" x14ac:dyDescent="0.25">
       <c r="Q48" s="3" t="s">
         <v>34</v>
       </c>
@@ -3616,27 +3615,27 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
-      <c r="AH48" s="9">
+      <c r="AH48" s="8">
         <f>+($X$46+$R$46)/-4</f>
         <v>-48.569749999999992</v>
       </c>
       <c r="AI48" s="3"/>
-      <c r="AJ48" s="9">
+      <c r="AJ48" s="8">
         <f>+AH48</f>
         <v>-48.569749999999992</v>
       </c>
       <c r="AK48" s="3"/>
-      <c r="AL48" s="9">
+      <c r="AL48" s="8">
         <f>+AJ48</f>
         <v>-48.569749999999992</v>
       </c>
       <c r="AM48" s="3"/>
-      <c r="AN48" s="9">
+      <c r="AN48" s="8">
         <f>+AL48</f>
         <v>-48.569749999999992</v>
       </c>
     </row>
-    <row r="49" spans="17:41" x14ac:dyDescent="0.3">
+    <row r="49" spans="17:41" x14ac:dyDescent="0.25">
       <c r="Q49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3659,7 +3658,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="50" spans="17:41" x14ac:dyDescent="0.3">
+    <row r="50" spans="17:41" x14ac:dyDescent="0.25">
       <c r="Q50" s="3" t="s">
         <v>4</v>
       </c>
@@ -3686,7 +3685,7 @@
       </c>
       <c r="AO50" s="1"/>
     </row>
-    <row r="51" spans="17:41" x14ac:dyDescent="0.3">
+    <row r="51" spans="17:41" x14ac:dyDescent="0.25">
       <c r="Q51" s="3" t="s">
         <v>33</v>
       </c>
@@ -3725,7 +3724,7 @@
         <v>14.610373443498283</v>
       </c>
     </row>
-    <row r="52" spans="17:41" x14ac:dyDescent="0.3">
+    <row r="52" spans="17:41" x14ac:dyDescent="0.25">
       <c r="AH52" s="3" t="s">
         <v>29</v>
       </c>
@@ -3751,36 +3750,60 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="17:41" x14ac:dyDescent="0.3">
-      <c r="AH53" s="7" t="s">
+    <row r="53" spans="17:41" x14ac:dyDescent="0.25">
+      <c r="AH53" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AI53" s="7"/>
-      <c r="AJ53" s="7" t="s">
+      <c r="AI53" s="12"/>
+      <c r="AJ53" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="AK53" s="7"/>
-      <c r="AL53" s="7" t="s">
+      <c r="AK53" s="12"/>
+      <c r="AL53" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="AM53" s="7"/>
-      <c r="AN53" s="7" t="s">
+      <c r="AM53" s="12"/>
+      <c r="AN53" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AO53" s="7"/>
-    </row>
-    <row r="54" spans="17:41" x14ac:dyDescent="0.3">
+      <c r="AO53" s="12"/>
+    </row>
+    <row r="54" spans="17:41" x14ac:dyDescent="0.25">
       <c r="AI54" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="17:41" x14ac:dyDescent="0.3">
+    <row r="55" spans="17:41" x14ac:dyDescent="0.25">
       <c r="AI55" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AF21:AG21"/>
+    <mergeCell ref="AJ21:AK21"/>
+    <mergeCell ref="AL21:AM21"/>
+    <mergeCell ref="AN21:AO21"/>
+    <mergeCell ref="AH34:AI34"/>
+    <mergeCell ref="AJ34:AK34"/>
+    <mergeCell ref="AL34:AM34"/>
+    <mergeCell ref="AN34:AO34"/>
+    <mergeCell ref="AH21:AI21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="AD40:AE40"/>
+    <mergeCell ref="AF40:AG40"/>
     <mergeCell ref="AJ40:AK40"/>
     <mergeCell ref="AL40:AM40"/>
     <mergeCell ref="AN40:AO40"/>
@@ -3788,31 +3811,7 @@
     <mergeCell ref="AJ53:AK53"/>
     <mergeCell ref="AL53:AM53"/>
     <mergeCell ref="AN53:AO53"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="Z40:AA40"/>
-    <mergeCell ref="AB40:AC40"/>
-    <mergeCell ref="AD40:AE40"/>
-    <mergeCell ref="AF40:AG40"/>
     <mergeCell ref="AH40:AI40"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="AJ21:AK21"/>
-    <mergeCell ref="AL21:AM21"/>
-    <mergeCell ref="AN21:AO21"/>
-    <mergeCell ref="AH34:AI34"/>
-    <mergeCell ref="AJ34:AK34"/>
-    <mergeCell ref="AL34:AM34"/>
-    <mergeCell ref="AN34:AO34"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AF21:AG21"/>
-    <mergeCell ref="AH21:AI21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/doc/teorethicalcomputation4tests.xlsx
+++ b/doc/teorethicalcomputation4tests.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DiscoD\Muro\GitHub\multienergysystem\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87FA72F-3ED7-44F1-A824-6A8C941A8D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E5CD1C-3811-4963-9F99-27907162A255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{48B1869B-21F5-4BDF-B69D-8E219112A809}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{48B1869B-21F5-4BDF-B69D-8E219112A809}"/>
   </bookViews>
   <sheets>
     <sheet name="Mass_Energy Balance" sheetId="1" r:id="rId1"/>
     <sheet name="Only Boiler" sheetId="2" r:id="rId2"/>
     <sheet name="GBoiler &amp; ElectricB" sheetId="3" r:id="rId3"/>
+    <sheet name="HeatPumps" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="51">
   <si>
     <t>HX01</t>
   </si>
@@ -164,13 +165,40 @@
   </si>
   <si>
     <t>Valve V401</t>
+  </si>
+  <si>
+    <t>Tin_hot</t>
+  </si>
+  <si>
+    <t>Tout_hot</t>
+  </si>
+  <si>
+    <t>m_hot</t>
+  </si>
+  <si>
+    <t>Tin_cold</t>
+  </si>
+  <si>
+    <t>Tout_cold</t>
+  </si>
+  <si>
+    <t>m_cold</t>
+  </si>
+  <si>
+    <t>EX601</t>
+  </si>
+  <si>
+    <t>HP601</t>
+  </si>
+  <si>
+    <t>HP301</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +230,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -229,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -244,6 +278,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,12 +602,12 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:24" x14ac:dyDescent="0.3">
       <c r="M5" t="s">
         <v>8</v>
       </c>
@@ -593,7 +630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:24" x14ac:dyDescent="0.3">
       <c r="J6">
         <v>6627.7772999999997</v>
       </c>
@@ -637,7 +674,7 @@
         <v>8156.6624352754998</v>
       </c>
     </row>
-    <row r="7" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:24" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>0</v>
       </c>
@@ -681,7 +718,7 @@
         <v>4196.0578153123297</v>
       </c>
     </row>
-    <row r="8" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
@@ -735,7 +772,7 @@
         <v>4194.6198946187096</v>
       </c>
     </row>
-    <row r="9" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>4</v>
       </c>
@@ -782,7 +819,7 @@
         <v>4193.2094167923105</v>
       </c>
     </row>
-    <row r="10" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>5</v>
       </c>
@@ -833,7 +870,7 @@
         <v>4191.8298163361069</v>
       </c>
     </row>
-    <row r="11" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:24" x14ac:dyDescent="0.3">
       <c r="J11">
         <v>7524.7124000000003</v>
       </c>
@@ -865,7 +902,7 @@
         <v>4190.4845166768991</v>
       </c>
     </row>
-    <row r="12" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>6</v>
       </c>
@@ -916,7 +953,7 @@
         <v>4189.177148918001</v>
       </c>
     </row>
-    <row r="13" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>7</v>
       </c>
@@ -969,7 +1006,7 @@
         <v>4187.9115340050121</v>
       </c>
     </row>
-    <row r="15" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:24" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
         <v>0</v>
       </c>
@@ -983,7 +1020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -1003,7 +1040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>4</v>
       </c>
@@ -1020,7 +1057,7 @@
         <v>4161.072874194846</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>5</v>
       </c>
@@ -1037,7 +1074,7 @@
         <v>0.6023847</v>
       </c>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>6</v>
       </c>
@@ -1066,7 +1103,7 @@
         <v>4161.072874194846</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>7</v>
       </c>
@@ -1087,7 +1124,7 @@
         <v>50.131332700000002</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>13</v>
       </c>
@@ -1098,7 +1135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -1109,7 +1146,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>17</v>
       </c>
@@ -1120,7 +1157,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -1131,7 +1168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>17</v>
       </c>
@@ -1152,17 +1189,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0539F5BB-28F8-4AFC-BFAF-78EBA52576BB}">
   <dimension ref="C5:AI47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AB30" sqref="AB30:AH30"/>
+    <sheetView topLeftCell="P16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:24" x14ac:dyDescent="0.3">
       <c r="M5" t="s">
         <v>8</v>
       </c>
@@ -1185,7 +1222,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:24" x14ac:dyDescent="0.3">
       <c r="J6">
         <v>6627.7772999999997</v>
       </c>
@@ -1229,7 +1266,7 @@
         <v>8156.6624352754998</v>
       </c>
     </row>
-    <row r="7" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:24" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>0</v>
       </c>
@@ -1273,7 +1310,7 @@
         <v>4196.0578153123297</v>
       </c>
     </row>
-    <row r="8" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1327,7 +1364,7 @@
         <v>4194.6198946187096</v>
       </c>
     </row>
-    <row r="9" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>4</v>
       </c>
@@ -1374,7 +1411,7 @@
         <v>4193.2094167923105</v>
       </c>
     </row>
-    <row r="10" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>5</v>
       </c>
@@ -1425,7 +1462,7 @@
         <v>4191.8298163361069</v>
       </c>
     </row>
-    <row r="11" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:24" x14ac:dyDescent="0.3">
       <c r="J11">
         <v>7524.7124000000003</v>
       </c>
@@ -1457,7 +1494,7 @@
         <v>4190.4845166768991</v>
       </c>
     </row>
-    <row r="12" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>6</v>
       </c>
@@ -1508,7 +1545,7 @@
         <v>4189.177148918001</v>
       </c>
     </row>
-    <row r="13" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:24" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>7</v>
       </c>
@@ -1561,7 +1598,7 @@
         <v>4187.9115340050121</v>
       </c>
     </row>
-    <row r="15" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:24" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
         <v>0</v>
       </c>
@@ -1575,7 +1612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -1595,7 +1632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:35" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>4</v>
       </c>
@@ -1612,7 +1649,7 @@
         <v>4161.072874194846</v>
       </c>
     </row>
-    <row r="18" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:35" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>5</v>
       </c>
@@ -1632,7 +1669,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:35" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>6</v>
       </c>
@@ -1661,7 +1698,7 @@
         <v>4161.072874194846</v>
       </c>
     </row>
-    <row r="21" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:35" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>7</v>
       </c>
@@ -1718,7 +1755,7 @@
       </c>
       <c r="AI21" s="12"/>
     </row>
-    <row r="22" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:35" x14ac:dyDescent="0.3">
       <c r="R22" s="3" t="s">
         <v>20</v>
       </c>
@@ -1774,12 +1811,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:35" x14ac:dyDescent="0.3">
       <c r="Q23" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>13</v>
       </c>
@@ -1863,7 +1900,7 @@
         <v>70.452222010726643</v>
       </c>
     </row>
-    <row r="25" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:35" x14ac:dyDescent="0.3">
       <c r="Q25" s="3" t="s">
         <v>4</v>
       </c>
@@ -1883,7 +1920,7 @@
         <v>4161.072874194846</v>
       </c>
     </row>
-    <row r="26" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:35" x14ac:dyDescent="0.3">
       <c r="Q26" s="3" t="s">
         <v>5</v>
       </c>
@@ -1919,7 +1956,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="27" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -1956,10 +1993,10 @@
         <v>24.830624999999987</v>
       </c>
     </row>
-    <row r="28" spans="3:35" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:35" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>17</v>
       </c>
@@ -1992,7 +2029,7 @@
         <v>-24.830625000000001</v>
       </c>
     </row>
-    <row r="30" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:35" x14ac:dyDescent="0.3">
       <c r="Q30" s="3" t="s">
         <v>5</v>
       </c>
@@ -2009,7 +2046,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="31" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:35" x14ac:dyDescent="0.3">
       <c r="Q31" s="3" t="s">
         <v>4</v>
       </c>
@@ -2030,7 +2067,7 @@
       </c>
       <c r="AI31" s="1"/>
     </row>
-    <row r="32" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -2072,7 +2109,7 @@
         <v>11.379463639105916</v>
       </c>
     </row>
-    <row r="33" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>17</v>
       </c>
@@ -2107,7 +2144,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:35" x14ac:dyDescent="0.3">
       <c r="AB34" s="12" t="s">
         <v>0</v>
       </c>
@@ -2125,17 +2162,17 @@
       </c>
       <c r="AI34" s="12"/>
     </row>
-    <row r="35" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:35" x14ac:dyDescent="0.3">
       <c r="AC35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:35" x14ac:dyDescent="0.3">
       <c r="AC36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:35" x14ac:dyDescent="0.3">
       <c r="E37" t="s">
         <v>0</v>
       </c>
@@ -2149,7 +2186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:35" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
         <v>18</v>
       </c>
@@ -2163,7 +2200,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -2183,7 +2220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:35" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>4</v>
       </c>
@@ -2200,7 +2237,7 @@
         <v>4198.5741190523495</v>
       </c>
     </row>
-    <row r="43" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:35" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -2211,7 +2248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:35" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>4</v>
       </c>
@@ -2223,7 +2260,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:35" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>5</v>
       </c>
@@ -2232,7 +2269,7 @@
         <v>1.2047694</v>
       </c>
     </row>
-    <row r="47" spans="3:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:35" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
         <v>7</v>
       </c>
@@ -2243,6 +2280,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="R21:S21"/>
     <mergeCell ref="AB34:AC34"/>
     <mergeCell ref="AD34:AE34"/>
     <mergeCell ref="AF34:AG34"/>
@@ -2251,11 +2293,6 @@
     <mergeCell ref="AF21:AG21"/>
     <mergeCell ref="AD21:AE21"/>
     <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="R21:S21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2273,14 +2310,14 @@
       <selection activeCell="AH49" sqref="AH49:AN49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="23" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="23" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:27" x14ac:dyDescent="0.3">
       <c r="J6">
         <v>6627.7772999999997</v>
       </c>
@@ -2289,7 +2326,7 @@
       </c>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:27" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>0</v>
       </c>
@@ -2309,7 +2346,7 @@
         <v>-7524.7173000000003</v>
       </c>
     </row>
-    <row r="8" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
@@ -2339,7 +2376,7 @@
         <v>-7336.5117</v>
       </c>
     </row>
-    <row r="9" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>4</v>
       </c>
@@ -2362,7 +2399,7 @@
         <v>-7152.8056999999999</v>
       </c>
     </row>
-    <row r="10" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>5</v>
       </c>
@@ -2389,7 +2426,7 @@
         <v>-6973.5079999999998</v>
       </c>
     </row>
-    <row r="11" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:27" x14ac:dyDescent="0.3">
       <c r="J11">
         <v>7524.7124000000003</v>
       </c>
@@ -2397,7 +2434,7 @@
         <v>-6798.5293000000001</v>
       </c>
     </row>
-    <row r="12" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>6</v>
       </c>
@@ -2424,7 +2461,7 @@
         <v>-6627.7816999999995</v>
       </c>
     </row>
-    <row r="13" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>7</v>
       </c>
@@ -2453,7 +2490,7 @@
         <v>-50131.366399999999</v>
       </c>
     </row>
-    <row r="15" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:27" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
         <v>0</v>
       </c>
@@ -2467,7 +2504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -2487,7 +2524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:41" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>4</v>
       </c>
@@ -2504,7 +2541,7 @@
         <v>4161.072874194846</v>
       </c>
     </row>
-    <row r="18" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:41" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>5</v>
       </c>
@@ -2521,7 +2558,7 @@
         <v>0.6023847</v>
       </c>
     </row>
-    <row r="20" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:41" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>6</v>
       </c>
@@ -2550,7 +2587,7 @@
         <v>4161.072874194846</v>
       </c>
     </row>
-    <row r="21" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:41" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>7</v>
       </c>
@@ -2619,7 +2656,7 @@
       </c>
       <c r="AO21" s="12"/>
     </row>
-    <row r="22" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:41" x14ac:dyDescent="0.3">
       <c r="R22" t="s">
         <v>20</v>
       </c>
@@ -2693,7 +2730,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:41" x14ac:dyDescent="0.3">
       <c r="Q23" s="3" t="s">
         <v>32</v>
       </c>
@@ -2705,7 +2742,7 @@
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
     </row>
-    <row r="24" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>13</v>
       </c>
@@ -2811,7 +2848,7 @@
         <v>70.452222010726643</v>
       </c>
     </row>
-    <row r="25" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:41" x14ac:dyDescent="0.3">
       <c r="Q25" s="3" t="s">
         <v>4</v>
       </c>
@@ -2839,7 +2876,7 @@
         <v>4161.072874194846</v>
       </c>
     </row>
-    <row r="26" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:41" x14ac:dyDescent="0.3">
       <c r="Q26" s="3" t="s">
         <v>5</v>
       </c>
@@ -2892,7 +2929,7 @@
         <v>0.93963162928842903</v>
       </c>
     </row>
-    <row r="27" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -2937,7 +2974,7 @@
         <v>37.330624999999969</v>
       </c>
     </row>
-    <row r="28" spans="3:41" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:41" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
@@ -2947,7 +2984,7 @@
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
     </row>
-    <row r="29" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>17</v>
       </c>
@@ -2986,7 +3023,7 @@
         <v>-37.330624999999998</v>
       </c>
     </row>
-    <row r="30" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:41" x14ac:dyDescent="0.3">
       <c r="Q30" s="3" t="s">
         <v>5</v>
       </c>
@@ -3009,7 +3046,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="31" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:41" x14ac:dyDescent="0.3">
       <c r="Q31" s="3" t="s">
         <v>4</v>
       </c>
@@ -3036,7 +3073,7 @@
       </c>
       <c r="AO31" s="1"/>
     </row>
-    <row r="32" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -3084,7 +3121,7 @@
         <v>13.080721480534553</v>
       </c>
     </row>
-    <row r="33" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>17</v>
       </c>
@@ -3119,7 +3156,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:41" x14ac:dyDescent="0.3">
       <c r="AH34" s="12" t="s">
         <v>0</v>
       </c>
@@ -3137,17 +3174,17 @@
       </c>
       <c r="AO34" s="12"/>
     </row>
-    <row r="35" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:41" x14ac:dyDescent="0.3">
       <c r="AI35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:41" x14ac:dyDescent="0.3">
       <c r="AI36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:41" x14ac:dyDescent="0.3">
       <c r="E37" t="s">
         <v>0</v>
       </c>
@@ -3161,7 +3198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:41" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
         <v>18</v>
       </c>
@@ -3175,7 +3212,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -3195,7 +3232,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:41" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>4</v>
       </c>
@@ -3260,7 +3297,7 @@
       </c>
       <c r="AO40" s="12"/>
     </row>
-    <row r="41" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:41" x14ac:dyDescent="0.3">
       <c r="R41" t="s">
         <v>20</v>
       </c>
@@ -3334,7 +3371,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:41" x14ac:dyDescent="0.3">
       <c r="Q42" s="3" t="s">
         <v>32</v>
       </c>
@@ -3346,7 +3383,7 @@
       <c r="W42" s="9"/>
       <c r="X42" s="9"/>
     </row>
-    <row r="43" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:41" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -3452,7 +3489,7 @@
         <v>64.924561069568369</v>
       </c>
     </row>
-    <row r="44" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:41" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>4</v>
       </c>
@@ -3490,7 +3527,7 @@
         <v>4161.072874194846</v>
       </c>
     </row>
-    <row r="45" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:41" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>5</v>
       </c>
@@ -3552,7 +3589,7 @@
         <v>0.77426669854933838</v>
       </c>
     </row>
-    <row r="46" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:41" x14ac:dyDescent="0.3">
       <c r="Q46" s="3" t="s">
         <v>35</v>
       </c>
@@ -3588,7 +3625,7 @@
         <v>48.569750000000013</v>
       </c>
     </row>
-    <row r="47" spans="3:41" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:41" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
         <v>7</v>
       </c>
@@ -3605,7 +3642,7 @@
       <c r="W47" s="9"/>
       <c r="X47" s="9"/>
     </row>
-    <row r="48" spans="3:41" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:41" x14ac:dyDescent="0.3">
       <c r="Q48" s="3" t="s">
         <v>34</v>
       </c>
@@ -3635,7 +3672,7 @@
         <v>-48.569749999999992</v>
       </c>
     </row>
-    <row r="49" spans="17:41" x14ac:dyDescent="0.25">
+    <row r="49" spans="17:41" x14ac:dyDescent="0.3">
       <c r="Q49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3658,7 +3695,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="50" spans="17:41" x14ac:dyDescent="0.25">
+    <row r="50" spans="17:41" x14ac:dyDescent="0.3">
       <c r="Q50" s="3" t="s">
         <v>4</v>
       </c>
@@ -3685,7 +3722,7 @@
       </c>
       <c r="AO50" s="1"/>
     </row>
-    <row r="51" spans="17:41" x14ac:dyDescent="0.25">
+    <row r="51" spans="17:41" x14ac:dyDescent="0.3">
       <c r="Q51" s="3" t="s">
         <v>33</v>
       </c>
@@ -3724,7 +3761,7 @@
         <v>14.610373443498283</v>
       </c>
     </row>
-    <row r="52" spans="17:41" x14ac:dyDescent="0.25">
+    <row r="52" spans="17:41" x14ac:dyDescent="0.3">
       <c r="AH52" s="3" t="s">
         <v>29</v>
       </c>
@@ -3750,7 +3787,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="17:41" x14ac:dyDescent="0.25">
+    <row r="53" spans="17:41" x14ac:dyDescent="0.3">
       <c r="AH53" s="12" t="s">
         <v>0</v>
       </c>
@@ -3768,23 +3805,37 @@
       </c>
       <c r="AO53" s="12"/>
     </row>
-    <row r="54" spans="17:41" x14ac:dyDescent="0.25">
+    <row r="54" spans="17:41" x14ac:dyDescent="0.3">
       <c r="AI54" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="17:41" x14ac:dyDescent="0.25">
+    <row r="55" spans="17:41" x14ac:dyDescent="0.3">
       <c r="AI55" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AF21:AG21"/>
+    <mergeCell ref="AJ40:AK40"/>
+    <mergeCell ref="AL40:AM40"/>
+    <mergeCell ref="AN40:AO40"/>
+    <mergeCell ref="AH53:AI53"/>
+    <mergeCell ref="AJ53:AK53"/>
+    <mergeCell ref="AL53:AM53"/>
+    <mergeCell ref="AN53:AO53"/>
+    <mergeCell ref="AH40:AI40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="AD40:AE40"/>
+    <mergeCell ref="AF40:AG40"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="V40:W40"/>
     <mergeCell ref="AJ21:AK21"/>
     <mergeCell ref="AL21:AM21"/>
     <mergeCell ref="AN21:AO21"/>
@@ -3793,25 +3844,11 @@
     <mergeCell ref="AL34:AM34"/>
     <mergeCell ref="AN34:AO34"/>
     <mergeCell ref="AH21:AI21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="Z40:AA40"/>
-    <mergeCell ref="AB40:AC40"/>
-    <mergeCell ref="AD40:AE40"/>
-    <mergeCell ref="AF40:AG40"/>
-    <mergeCell ref="AJ40:AK40"/>
-    <mergeCell ref="AL40:AM40"/>
-    <mergeCell ref="AN40:AO40"/>
-    <mergeCell ref="AH53:AI53"/>
-    <mergeCell ref="AJ53:AK53"/>
-    <mergeCell ref="AL53:AM53"/>
-    <mergeCell ref="AN53:AO53"/>
-    <mergeCell ref="AH40:AI40"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AF21:AG21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3819,4 +3856,162 @@
     <ignoredError sqref="AN24 AL24 AJ24" formula="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA49D2E-7548-4626-9DF2-4D26D6F180DF}">
+  <dimension ref="C6:R16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="1">
+        <v>20000</v>
+      </c>
+      <c r="P6" s="13">
+        <v>2.4444444440000002</v>
+      </c>
+      <c r="Q6">
+        <f>+O6/P6</f>
+        <v>8181.8181833057843</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7">
+        <v>17</v>
+      </c>
+      <c r="I7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>14.7</v>
+      </c>
+      <c r="F9">
+        <f>15*1000/3600</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>14</v>
+      </c>
+      <c r="J9">
+        <f>+F9*(D9-E9)/(I9-H9)</f>
+        <v>1.3690476190476197</v>
+      </c>
+      <c r="L9">
+        <f>+J9*36/10</f>
+        <v>4.9285714285714315</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>14</v>
+      </c>
+      <c r="J12">
+        <f>+J9</f>
+        <v>1.3690476190476197</v>
+      </c>
+      <c r="L12">
+        <f>+J12*(I12-H12)/N12 +M12</f>
+        <v>48.920454545454547</v>
+      </c>
+      <c r="M12">
+        <v>45</v>
+      </c>
+      <c r="N12">
+        <f>8.8*1000/3600</f>
+        <v>2.4444444444444446</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <f>+L12</f>
+        <v>48.920454545454547</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ref="M16:N16" si="0">+M12</f>
+        <v>45</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="P16">
+        <v>60</v>
+      </c>
+      <c r="Q16">
+        <v>80</v>
+      </c>
+      <c r="R16">
+        <f>+N16*(L16-M16)/(Q16-P16)</f>
+        <v>0.47916666666666685</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/teorethicalcomputation4tests.xlsx
+++ b/doc/teorethicalcomputation4tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DiscoD\Muro\GitHub\multienergysystem\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E5CD1C-3811-4963-9F99-27907162A255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC8E892-BA22-40E3-8031-C10E1BA7A630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{48B1869B-21F5-4BDF-B69D-8E219112A809}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{48B1869B-21F5-4BDF-B69D-8E219112A809}"/>
   </bookViews>
   <sheets>
     <sheet name="Mass_Energy Balance" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="55">
   <si>
     <t>HX01</t>
   </si>
@@ -192,6 +192,18 @@
   </si>
   <si>
     <t>HP301</t>
+  </si>
+  <si>
+    <t>q(m3/h)</t>
+  </si>
+  <si>
+    <t>mh2o</t>
+  </si>
+  <si>
+    <t>w(kg/s)</t>
+  </si>
+  <si>
+    <t>dp (Pa)</t>
   </si>
 </sst>
 </file>
@@ -276,11 +288,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -297,6 +309,1015 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Only Boiler'!$AO$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dp (Pa)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Only Boiler'!$AN$56:$AN$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Only Boiler'!$AO$56:$AO$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1961.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2941.9949999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3922.66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7845.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CACB-4165-B3A2-6CF097DBE66A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1288520336"/>
+        <c:axId val="960140144"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1288520336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="960140144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="960140144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1288520336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>340120</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>130750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Immagine 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F7045B1-1AFF-216B-C54C-E4FE54D294A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10831286" y="7157357"/>
+          <a:ext cx="11361905" cy="7733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>126223</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>413547</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>51908</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1D8C54A-1042-478F-424F-E73EF0E4DA02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1187,10 +2208,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0539F5BB-28F8-4AFC-BFAF-78EBA52576BB}">
-  <dimension ref="C5:AI47"/>
+  <dimension ref="C5:AO60"/>
   <sheetViews>
-    <sheetView topLeftCell="P16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="W33" sqref="W33"/>
+    <sheetView tabSelected="1" topLeftCell="R25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AF40" sqref="AF40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1718,42 +2739,42 @@
         <f>+H20/1000</f>
         <v>50.131332700000002</v>
       </c>
-      <c r="R21" s="12" t="s">
+      <c r="R21" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12" t="s">
+      <c r="S21" s="13"/>
+      <c r="T21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12" t="s">
+      <c r="U21" s="13"/>
+      <c r="V21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12" t="s">
+      <c r="W21" s="13"/>
+      <c r="X21" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12" t="s">
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="12" t="s">
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="12" t="s">
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="12" t="s">
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="AG21" s="12"/>
-      <c r="AH21" s="12" t="s">
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="AI21" s="12"/>
+      <c r="AI21" s="13"/>
     </row>
     <row r="22" spans="3:35" x14ac:dyDescent="0.3">
       <c r="R22" s="3" t="s">
@@ -2145,22 +3166,22 @@
       </c>
     </row>
     <row r="34" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="AB34" s="12" t="s">
+      <c r="AB34" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AC34" s="12"/>
-      <c r="AD34" s="12" t="s">
+      <c r="AC34" s="13"/>
+      <c r="AD34" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="AE34" s="12"/>
-      <c r="AF34" s="12" t="s">
+      <c r="AE34" s="13"/>
+      <c r="AF34" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="AG34" s="12"/>
-      <c r="AH34" s="12" t="s">
+      <c r="AG34" s="13"/>
+      <c r="AH34" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="AI34" s="12"/>
+      <c r="AI34" s="13"/>
     </row>
     <row r="35" spans="3:35" x14ac:dyDescent="0.3">
       <c r="AC35" t="s">
@@ -2278,13 +3299,102 @@
         <v>100.26266540000009</v>
       </c>
     </row>
+    <row r="55" spans="38:41" x14ac:dyDescent="0.3">
+      <c r="AL55" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="38:41" x14ac:dyDescent="0.3">
+      <c r="AL56">
+        <v>0</v>
+      </c>
+      <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <f>+AL56*990/3600</f>
+        <v>0</v>
+      </c>
+      <c r="AO56">
+        <f>+AM56*9806.65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="38:41" x14ac:dyDescent="0.3">
+      <c r="AL57">
+        <v>13</v>
+      </c>
+      <c r="AM57">
+        <v>0.2</v>
+      </c>
+      <c r="AN57">
+        <f>+AL57*990/3600</f>
+        <v>3.5750000000000002</v>
+      </c>
+      <c r="AO57">
+        <f>+AM57*9806.65</f>
+        <v>1961.33</v>
+      </c>
+    </row>
+    <row r="58" spans="38:41" x14ac:dyDescent="0.3">
+      <c r="AL58">
+        <v>18</v>
+      </c>
+      <c r="AM58">
+        <v>0.3</v>
+      </c>
+      <c r="AN58">
+        <f>+AL58*990/3600</f>
+        <v>4.95</v>
+      </c>
+      <c r="AO58">
+        <f>+AM58*9806.65</f>
+        <v>2941.9949999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="38:41" x14ac:dyDescent="0.3">
+      <c r="AL59">
+        <v>22</v>
+      </c>
+      <c r="AM59">
+        <v>0.4</v>
+      </c>
+      <c r="AN59">
+        <f>+AL59*990/3600</f>
+        <v>6.05</v>
+      </c>
+      <c r="AO59">
+        <f>+AM59*9806.65</f>
+        <v>3922.66</v>
+      </c>
+    </row>
+    <row r="60" spans="38:41" x14ac:dyDescent="0.3">
+      <c r="AL60">
+        <v>34</v>
+      </c>
+      <c r="AM60">
+        <v>0.8</v>
+      </c>
+      <c r="AN60">
+        <f>+AL60*990/3600</f>
+        <v>9.35</v>
+      </c>
+      <c r="AO60">
+        <f>+AM60*9806.65</f>
+        <v>7845.32</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="R21:S21"/>
     <mergeCell ref="AB34:AC34"/>
     <mergeCell ref="AD34:AE34"/>
     <mergeCell ref="AF34:AG34"/>
@@ -2293,12 +3403,18 @@
     <mergeCell ref="AF21:AG21"/>
     <mergeCell ref="AD21:AE21"/>
     <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="R21:S21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="AD24 AF24 AH24" formula="1"/>
   </ignoredErrors>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2607,54 +3723,54 @@
         <f>+H20/1000</f>
         <v>50.131332700000002</v>
       </c>
-      <c r="R21" s="12" t="s">
+      <c r="R21" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12" t="s">
+      <c r="S21" s="13"/>
+      <c r="T21" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12" t="s">
+      <c r="U21" s="13"/>
+      <c r="V21" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12" t="s">
+      <c r="W21" s="13"/>
+      <c r="X21" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12" t="s">
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="12" t="s">
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="12" t="s">
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="12" t="s">
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AG21" s="12"/>
-      <c r="AH21" s="12" t="s">
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AI21" s="12"/>
-      <c r="AJ21" s="12" t="s">
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="AK21" s="12"/>
-      <c r="AL21" s="12" t="s">
+      <c r="AK21" s="13"/>
+      <c r="AL21" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="AM21" s="12"/>
-      <c r="AN21" s="12" t="s">
+      <c r="AM21" s="13"/>
+      <c r="AN21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="AO21" s="12"/>
+      <c r="AO21" s="13"/>
     </row>
     <row r="22" spans="3:41" x14ac:dyDescent="0.3">
       <c r="R22" t="s">
@@ -3157,22 +4273,22 @@
       </c>
     </row>
     <row r="34" spans="3:41" x14ac:dyDescent="0.3">
-      <c r="AH34" s="12" t="s">
+      <c r="AH34" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AI34" s="12"/>
-      <c r="AJ34" s="12" t="s">
+      <c r="AI34" s="13"/>
+      <c r="AJ34" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="AK34" s="12"/>
-      <c r="AL34" s="12" t="s">
+      <c r="AK34" s="13"/>
+      <c r="AL34" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="AM34" s="12"/>
-      <c r="AN34" s="12" t="s">
+      <c r="AM34" s="13"/>
+      <c r="AN34" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="AO34" s="12"/>
+      <c r="AO34" s="13"/>
     </row>
     <row r="35" spans="3:41" x14ac:dyDescent="0.3">
       <c r="AI35" t="s">
@@ -3248,54 +4364,54 @@
       <c r="H40" s="1">
         <v>4198.5741190523495</v>
       </c>
-      <c r="R40" s="12" t="s">
+      <c r="R40" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="S40" s="12"/>
-      <c r="T40" s="12" t="s">
+      <c r="S40" s="13"/>
+      <c r="T40" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="U40" s="12"/>
-      <c r="V40" s="12" t="s">
+      <c r="U40" s="13"/>
+      <c r="V40" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="W40" s="12"/>
-      <c r="X40" s="12" t="s">
+      <c r="W40" s="13"/>
+      <c r="X40" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Y40" s="12"/>
-      <c r="Z40" s="12" t="s">
+      <c r="Y40" s="13"/>
+      <c r="Z40" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AA40" s="12"/>
-      <c r="AB40" s="12" t="s">
+      <c r="AA40" s="13"/>
+      <c r="AB40" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AC40" s="12"/>
-      <c r="AD40" s="12" t="s">
+      <c r="AC40" s="13"/>
+      <c r="AD40" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AE40" s="12"/>
-      <c r="AF40" s="12" t="s">
+      <c r="AE40" s="13"/>
+      <c r="AF40" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AG40" s="12"/>
-      <c r="AH40" s="12" t="s">
+      <c r="AG40" s="13"/>
+      <c r="AH40" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AI40" s="12"/>
-      <c r="AJ40" s="12" t="s">
+      <c r="AI40" s="13"/>
+      <c r="AJ40" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="AK40" s="12"/>
-      <c r="AL40" s="12" t="s">
+      <c r="AK40" s="13"/>
+      <c r="AL40" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="AM40" s="12"/>
-      <c r="AN40" s="12" t="s">
+      <c r="AM40" s="13"/>
+      <c r="AN40" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="AO40" s="12"/>
+      <c r="AO40" s="13"/>
     </row>
     <row r="41" spans="3:41" x14ac:dyDescent="0.3">
       <c r="R41" t="s">
@@ -3788,22 +4904,22 @@
       </c>
     </row>
     <row r="53" spans="17:41" x14ac:dyDescent="0.3">
-      <c r="AH53" s="12" t="s">
+      <c r="AH53" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AI53" s="12"/>
-      <c r="AJ53" s="12" t="s">
+      <c r="AI53" s="13"/>
+      <c r="AJ53" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="AK53" s="12"/>
-      <c r="AL53" s="12" t="s">
+      <c r="AK53" s="13"/>
+      <c r="AL53" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="AM53" s="12"/>
-      <c r="AN53" s="12" t="s">
+      <c r="AM53" s="13"/>
+      <c r="AN53" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="AO53" s="12"/>
+      <c r="AO53" s="13"/>
     </row>
     <row r="54" spans="17:41" x14ac:dyDescent="0.3">
       <c r="AI54" t="s">
@@ -3817,6 +4933,30 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AF21:AG21"/>
+    <mergeCell ref="AJ21:AK21"/>
+    <mergeCell ref="AL21:AM21"/>
+    <mergeCell ref="AN21:AO21"/>
+    <mergeCell ref="AH34:AI34"/>
+    <mergeCell ref="AJ34:AK34"/>
+    <mergeCell ref="AL34:AM34"/>
+    <mergeCell ref="AN34:AO34"/>
+    <mergeCell ref="AH21:AI21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="AD40:AE40"/>
+    <mergeCell ref="AF40:AG40"/>
     <mergeCell ref="AJ40:AK40"/>
     <mergeCell ref="AL40:AM40"/>
     <mergeCell ref="AN40:AO40"/>
@@ -3825,30 +4965,6 @@
     <mergeCell ref="AL53:AM53"/>
     <mergeCell ref="AN53:AO53"/>
     <mergeCell ref="AH40:AI40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="Z40:AA40"/>
-    <mergeCell ref="AB40:AC40"/>
-    <mergeCell ref="AD40:AE40"/>
-    <mergeCell ref="AF40:AG40"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="AJ21:AK21"/>
-    <mergeCell ref="AL21:AM21"/>
-    <mergeCell ref="AN21:AO21"/>
-    <mergeCell ref="AH34:AI34"/>
-    <mergeCell ref="AJ34:AK34"/>
-    <mergeCell ref="AL34:AM34"/>
-    <mergeCell ref="AN34:AO34"/>
-    <mergeCell ref="AH21:AI21"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AF21:AG21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3862,8 +4978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA49D2E-7548-4626-9DF2-4D26D6F180DF}">
   <dimension ref="C6:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3890,7 +5006,7 @@
       <c r="O6" s="1">
         <v>20000</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="12">
         <v>2.4444444440000002</v>
       </c>
       <c r="Q6">

--- a/doc/teorethicalcomputation4tests.xlsx
+++ b/doc/teorethicalcomputation4tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DiscoD\Muro\GitHub\multienergysystem\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC8E892-BA22-40E3-8031-C10E1BA7A630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85707EDF-63A2-4AFE-8B41-5E7C163227A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{48B1869B-21F5-4BDF-B69D-8E219112A809}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{48B1869B-21F5-4BDF-B69D-8E219112A809}"/>
   </bookViews>
   <sheets>
     <sheet name="Mass_Energy Balance" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="HeatPumps" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="56">
   <si>
     <t>HX01</t>
   </si>
@@ -204,6 +205,9 @@
   </si>
   <si>
     <t>dp (Pa)</t>
+  </si>
+  <si>
+    <t>dp (bar)</t>
   </si>
 </sst>
 </file>
@@ -446,48 +450,66 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Only Boiler'!$AN$56:$AN$60</c:f>
+              <c:f>'Only Boiler'!$AN$56:$AN$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1.925</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3.5750000000000002</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4.95</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>6.05</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>9.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Only Boiler'!$AO$56:$AO$60</c:f>
+              <c:f>'Only Boiler'!$AO$56:$AO$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>980.66499999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1961.33</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2941.9949999999999</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3922.66</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>7845.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9316.3174999999992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10051.816249999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1283,16 +1305,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>126223</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>38158</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>453472</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>115423</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>413547</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>51908</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>134660</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>125177</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2208,10 +2230,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0539F5BB-28F8-4AFC-BFAF-78EBA52576BB}">
-  <dimension ref="C5:AO60"/>
+  <dimension ref="C5:AP63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AF40" sqref="AF40"/>
+    <sheetView tabSelected="1" topLeftCell="J8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AX69" sqref="AX69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3299,7 +3321,7 @@
         <v>100.26266540000009</v>
       </c>
     </row>
-    <row r="55" spans="38:41" x14ac:dyDescent="0.3">
+    <row r="55" spans="38:42" x14ac:dyDescent="0.3">
       <c r="AL55" t="s">
         <v>51</v>
       </c>
@@ -3312,8 +3334,11 @@
       <c r="AO55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="38:41" x14ac:dyDescent="0.3">
+      <c r="AP55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="38:42" x14ac:dyDescent="0.3">
       <c r="AL56">
         <v>0</v>
       </c>
@@ -3321,76 +3346,156 @@
         <v>0</v>
       </c>
       <c r="AN56">
-        <f>+AL56*990/3600</f>
+        <f t="shared" ref="AN56:AN63" si="2">+AL56*990/3600</f>
         <v>0</v>
       </c>
       <c r="AO56">
-        <f>+AM56*9806.65</f>
+        <f t="shared" ref="AO56:AO63" si="3">+AM56*9806.65</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="38:41" x14ac:dyDescent="0.3">
+      <c r="AP56">
+        <f>+AO56/100000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="38:42" x14ac:dyDescent="0.3">
       <c r="AL57">
+        <v>7</v>
+      </c>
+      <c r="AM57">
+        <v>0.1</v>
+      </c>
+      <c r="AN57">
+        <f t="shared" si="2"/>
+        <v>1.925</v>
+      </c>
+      <c r="AO57">
+        <f t="shared" si="3"/>
+        <v>980.66499999999996</v>
+      </c>
+      <c r="AP57">
+        <f t="shared" ref="AP57:AP63" si="4">+AO57/100000</f>
+        <v>9.8066500000000001E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="38:42" x14ac:dyDescent="0.3">
+      <c r="AL58">
         <v>13</v>
       </c>
-      <c r="AM57">
+      <c r="AM58">
         <v>0.2</v>
       </c>
-      <c r="AN57">
-        <f>+AL57*990/3600</f>
+      <c r="AN58">
+        <f t="shared" si="2"/>
         <v>3.5750000000000002</v>
       </c>
-      <c r="AO57">
-        <f>+AM57*9806.65</f>
+      <c r="AO58">
+        <f t="shared" si="3"/>
         <v>1961.33</v>
       </c>
-    </row>
-    <row r="58" spans="38:41" x14ac:dyDescent="0.3">
-      <c r="AL58">
+      <c r="AP58">
+        <f t="shared" si="4"/>
+        <v>1.96133E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="38:42" x14ac:dyDescent="0.3">
+      <c r="AL59">
         <v>18</v>
       </c>
-      <c r="AM58">
+      <c r="AM59">
         <v>0.3</v>
       </c>
-      <c r="AN58">
-        <f>+AL58*990/3600</f>
+      <c r="AN59">
+        <f t="shared" si="2"/>
         <v>4.95</v>
       </c>
-      <c r="AO58">
-        <f>+AM58*9806.65</f>
+      <c r="AO59">
+        <f t="shared" si="3"/>
         <v>2941.9949999999999</v>
       </c>
-    </row>
-    <row r="59" spans="38:41" x14ac:dyDescent="0.3">
-      <c r="AL59">
+      <c r="AP59">
+        <f t="shared" si="4"/>
+        <v>2.941995E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="38:42" x14ac:dyDescent="0.3">
+      <c r="AL60">
         <v>22</v>
       </c>
-      <c r="AM59">
+      <c r="AM60">
         <v>0.4</v>
       </c>
-      <c r="AN59">
-        <f>+AL59*990/3600</f>
+      <c r="AN60">
+        <f t="shared" si="2"/>
         <v>6.05</v>
       </c>
-      <c r="AO59">
-        <f>+AM59*9806.65</f>
+      <c r="AO60">
+        <f t="shared" si="3"/>
         <v>3922.66</v>
       </c>
-    </row>
-    <row r="60" spans="38:41" x14ac:dyDescent="0.3">
-      <c r="AL60">
+      <c r="AP60">
+        <f t="shared" si="4"/>
+        <v>3.92266E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="38:42" x14ac:dyDescent="0.3">
+      <c r="AL61">
         <v>34</v>
       </c>
-      <c r="AM60">
+      <c r="AM61">
         <v>0.8</v>
       </c>
-      <c r="AN60">
-        <f>+AL60*990/3600</f>
+      <c r="AN61">
+        <f t="shared" si="2"/>
         <v>9.35</v>
       </c>
-      <c r="AO60">
-        <f>+AM60*9806.65</f>
+      <c r="AO61">
+        <f t="shared" si="3"/>
         <v>7845.32</v>
+      </c>
+      <c r="AP61">
+        <f t="shared" si="4"/>
+        <v>7.8453200000000001E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="38:42" x14ac:dyDescent="0.3">
+      <c r="AL62">
+        <v>38</v>
+      </c>
+      <c r="AM62">
+        <v>0.95</v>
+      </c>
+      <c r="AN62">
+        <f t="shared" si="2"/>
+        <v>10.45</v>
+      </c>
+      <c r="AO62">
+        <f t="shared" si="3"/>
+        <v>9316.3174999999992</v>
+      </c>
+      <c r="AP62">
+        <f t="shared" si="4"/>
+        <v>9.3163174999999987E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="38:42" x14ac:dyDescent="0.3">
+      <c r="AL63">
+        <v>40</v>
+      </c>
+      <c r="AM63">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="AN63">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="AO63">
+        <f t="shared" si="3"/>
+        <v>10051.816249999998</v>
+      </c>
+      <c r="AP63">
+        <f t="shared" si="4"/>
+        <v>0.10051816249999998</v>
       </c>
     </row>
   </sheetData>
@@ -5108,11 +5213,11 @@
         <v>48.920454545454547</v>
       </c>
       <c r="M16">
-        <f t="shared" ref="M16:N16" si="0">+M12</f>
+        <f>+M12</f>
         <v>45</v>
       </c>
       <c r="N16">
-        <f t="shared" si="0"/>
+        <f>+N12</f>
         <v>2.4444444444444446</v>
       </c>
       <c r="P16">

--- a/doc/teorethicalcomputation4tests.xlsx
+++ b/doc/teorethicalcomputation4tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DiscoD\Muro\GitHub\multienergysystem\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85707EDF-63A2-4AFE-8B41-5E7C163227A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A2DD18-49D2-437C-9177-3717101DD91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{48B1869B-21F5-4BDF-B69D-8E219112A809}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{48B1869B-21F5-4BDF-B69D-8E219112A809}"/>
   </bookViews>
   <sheets>
     <sheet name="Mass_Energy Balance" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="HeatPumps" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2232,7 +2231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0539F5BB-28F8-4AFC-BFAF-78EBA52576BB}">
   <dimension ref="C5:AP63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AX69" sqref="AX69"/>
     </sheetView>
   </sheetViews>
@@ -3500,6 +3499,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="R21:S21"/>
     <mergeCell ref="AB34:AC34"/>
     <mergeCell ref="AD34:AE34"/>
     <mergeCell ref="AF34:AG34"/>
@@ -3508,11 +3512,6 @@
     <mergeCell ref="AF21:AG21"/>
     <mergeCell ref="AD21:AE21"/>
     <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="R21:S21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5038,11 +5037,25 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AF21:AG21"/>
+    <mergeCell ref="AJ40:AK40"/>
+    <mergeCell ref="AL40:AM40"/>
+    <mergeCell ref="AN40:AO40"/>
+    <mergeCell ref="AH53:AI53"/>
+    <mergeCell ref="AJ53:AK53"/>
+    <mergeCell ref="AL53:AM53"/>
+    <mergeCell ref="AN53:AO53"/>
+    <mergeCell ref="AH40:AI40"/>
+    <mergeCell ref="X40:Y40"/>
+    <mergeCell ref="Z40:AA40"/>
+    <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="AD40:AE40"/>
+    <mergeCell ref="AF40:AG40"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="V40:W40"/>
     <mergeCell ref="AJ21:AK21"/>
     <mergeCell ref="AL21:AM21"/>
     <mergeCell ref="AN21:AO21"/>
@@ -5051,25 +5064,11 @@
     <mergeCell ref="AL34:AM34"/>
     <mergeCell ref="AN34:AO34"/>
     <mergeCell ref="AH21:AI21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="X40:Y40"/>
-    <mergeCell ref="Z40:AA40"/>
-    <mergeCell ref="AB40:AC40"/>
-    <mergeCell ref="AD40:AE40"/>
-    <mergeCell ref="AF40:AG40"/>
-    <mergeCell ref="AJ40:AK40"/>
-    <mergeCell ref="AL40:AM40"/>
-    <mergeCell ref="AN40:AO40"/>
-    <mergeCell ref="AH53:AI53"/>
-    <mergeCell ref="AJ53:AK53"/>
-    <mergeCell ref="AL53:AM53"/>
-    <mergeCell ref="AN53:AO53"/>
-    <mergeCell ref="AH40:AI40"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AF21:AG21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5083,7 +5082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA49D2E-7548-4626-9DF2-4D26D6F180DF}">
   <dimension ref="C6:R16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
